--- a/LF/PreTAS/Nigeria/sept 2023/ng_lf_pretas_202309_1_site.xlsx
+++ b/LF/PreTAS/Nigeria/sept 2023/ng_lf_pretas_202309_1_site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Nigeria\sept 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CF2BDB-D904-4CE1-BD47-17EF22DE836B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA255CB-C15B-4BDD-907E-6B8AE468DB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -840,9 +840,6 @@
     <t>begin group</t>
   </si>
   <si>
-    <t>ng_lf_pretas_202309_1_site_v2</t>
-  </si>
-  <si>
     <t>STATE</t>
   </si>
   <si>
@@ -906,7 +903,10 @@
     <t>DANGUZIRI</t>
   </si>
   <si>
-    <t>(Oct 2023) - 1. Nigeria - Pre TAS LF Site Form V2</t>
+    <t>(Oct 2023) - 1. Nigeria - Pre TAS LF Site Form V3</t>
+  </si>
+  <si>
+    <t>ng_lf_pretas_202309_1_site_v3</t>
   </si>
 </sst>
 </file>
@@ -1099,17 +1099,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1413,7 +1403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2512,10 +2502,10 @@
         <v>64</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>84</v>
@@ -2778,10 +2768,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>89</v>
@@ -2806,10 +2796,10 @@
         <v>64</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>89</v>
@@ -2881,10 +2871,10 @@
         <v>65</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>115</v>
@@ -2895,10 +2885,10 @@
         <v>65</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>115</v>
@@ -2915,7 +2905,7 @@
         <v>218</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="3" customFormat="1">
@@ -2929,7 +2919,7 @@
         <v>170</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="3" customFormat="1">
@@ -2937,10 +2927,10 @@
         <v>65</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>100</v>
@@ -2965,10 +2955,10 @@
         <v>65</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>101</v>
@@ -2979,10 +2969,10 @@
         <v>65</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>101</v>
@@ -2993,10 +2983,10 @@
         <v>65</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>91</v>
@@ -3007,10 +2997,10 @@
         <v>65</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>91</v>
@@ -3055,7 +3045,7 @@
         <v>172</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="3" customFormat="1">
@@ -3069,7 +3059,7 @@
         <v>220</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="3" customFormat="1">
@@ -3091,10 +3081,10 @@
         <v>65</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>92</v>
@@ -3119,10 +3109,10 @@
         <v>65</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>93</v>
@@ -3287,10 +3277,10 @@
         <v>65</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>117</v>
@@ -3357,13 +3347,13 @@
         <v>65</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="3" customFormat="1">
@@ -3377,7 +3367,7 @@
         <v>143</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="3" customFormat="1">
@@ -3525,10 +3515,10 @@
         <v>65</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>122</v>
@@ -3553,10 +3543,10 @@
         <v>65</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>105</v>
@@ -3567,10 +3557,10 @@
         <v>65</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>105</v>
@@ -3886,7 +3876,7 @@
         <v>70</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="154" spans="1:6" s="3" customFormat="1">
@@ -3900,7 +3890,7 @@
         <v>71</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="155" spans="1:6" s="3" customFormat="1">
@@ -3928,7 +3918,7 @@
         <v>71</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="3" customFormat="1">
@@ -3956,7 +3946,7 @@
         <v>71</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="3" customFormat="1">
@@ -3970,7 +3960,7 @@
         <v>71</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="3" customFormat="1">
@@ -4068,7 +4058,7 @@
         <v>70</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="167" spans="1:6" s="3" customFormat="1">
@@ -4082,7 +4072,7 @@
         <v>71</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="168" spans="1:6" s="3" customFormat="1">
@@ -4096,7 +4086,7 @@
         <v>70</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="169" spans="1:6" s="3" customFormat="1">
@@ -4222,7 +4212,7 @@
         <v>71</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="178" spans="1:6" s="3" customFormat="1">
@@ -4250,7 +4240,7 @@
         <v>71</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="180" spans="1:6" s="3" customFormat="1">
@@ -4264,7 +4254,7 @@
         <v>70</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="181" spans="1:6" s="3" customFormat="1">
@@ -4278,7 +4268,7 @@
         <v>71</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="182" spans="1:6" s="3" customFormat="1">
@@ -4306,7 +4296,7 @@
         <v>71</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="184" spans="1:6" s="3" customFormat="1">
@@ -4334,7 +4324,7 @@
         <v>71</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="186" spans="1:6" s="3" customFormat="1">
@@ -4689,7 +4679,7 @@
         <v>219</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="212" spans="1:6" s="3" customFormat="1">
@@ -4703,7 +4693,7 @@
         <v>220</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="213" spans="1:6" s="3" customFormat="1">
@@ -4731,7 +4721,7 @@
         <v>222</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="215" spans="1:6" s="3" customFormat="1">
@@ -4759,7 +4749,7 @@
         <v>224</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="217" spans="1:6" s="3" customFormat="1">
@@ -4773,7 +4763,7 @@
         <v>225</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="218" spans="1:6" s="3" customFormat="1">
@@ -4871,7 +4861,7 @@
         <v>232</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="225" spans="1:6" s="3" customFormat="1">
@@ -4885,7 +4875,7 @@
         <v>233</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="226" spans="1:6" s="3" customFormat="1">
@@ -4899,7 +4889,7 @@
         <v>234</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="227" spans="1:6" s="3" customFormat="1">
@@ -5025,7 +5015,7 @@
         <v>243</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="236" spans="1:6" s="3" customFormat="1">
@@ -5053,7 +5043,7 @@
         <v>245</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="238" spans="1:6" s="3" customFormat="1">
@@ -5067,7 +5057,7 @@
         <v>246</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="239" spans="1:6" s="3" customFormat="1">
@@ -5081,7 +5071,7 @@
         <v>247</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="240" spans="1:6" s="3" customFormat="1">
@@ -5109,7 +5099,7 @@
         <v>249</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="242" spans="1:6" s="3" customFormat="1">
@@ -5137,7 +5127,7 @@
         <v>251</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="244" spans="1:6" s="3" customFormat="1">
@@ -5237,8 +5227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5265,10 +5255,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>77</v>
@@ -5310,31 +5300,31 @@
         <v>79</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>271</v>
-      </c>
       <c r="H1" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="K1" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="K1" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>269</v>
-      </c>
       <c r="N1" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -5509,7 +5499,7 @@
         <v>115</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -5544,7 +5534,7 @@
         <v>115</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -5555,7 +5545,7 @@
         <v>89</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>70</v>
@@ -5570,10 +5560,10 @@
         <v>84</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N8" s="20" t="s">
         <v>218</v>
@@ -5587,7 +5577,7 @@
         <v>89</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>71</v>
@@ -5605,7 +5595,7 @@
         <v>100</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N9" s="20" t="s">
         <v>170</v>
@@ -5640,7 +5630,7 @@
         <v>100</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -5683,7 +5673,7 @@
         <v>89</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>70</v>
@@ -5704,7 +5694,7 @@
         <v>101</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -5715,7 +5705,7 @@
         <v>89</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>71</v>
@@ -5736,7 +5726,7 @@
         <v>101</v>
       </c>
       <c r="N13" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -5768,7 +5758,7 @@
         <v>91</v>
       </c>
       <c r="N14" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -5800,7 +5790,7 @@
         <v>91</v>
       </c>
       <c r="N15" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -5893,7 +5883,7 @@
         <v>97</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N18" s="20" t="s">
         <v>172</v>
@@ -5925,7 +5915,7 @@
         <v>98</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N19" s="20" t="s">
         <v>220</v>
@@ -5945,7 +5935,7 @@
         <v>70</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F20">
         <v>219</v>
@@ -5977,7 +5967,7 @@
         <v>71</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F21">
         <v>220</v>
@@ -5992,7 +5982,7 @@
         <v>92</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -6041,7 +6031,7 @@
         <v>71</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F23">
         <v>222</v>
@@ -6056,7 +6046,7 @@
         <v>93</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -6105,7 +6095,7 @@
         <v>71</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F25">
         <v>224</v>
@@ -6137,7 +6127,7 @@
         <v>71</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F26">
         <v>225</v>
@@ -6178,7 +6168,7 @@
         <v>89</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M27" s="20" t="s">
         <v>102</v>
@@ -6242,7 +6232,7 @@
         <v>89</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M29" s="20" t="s">
         <v>111</v>
@@ -6343,7 +6333,7 @@
         <v>70</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F33">
         <v>232</v>
@@ -6369,7 +6359,7 @@
         <v>71</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F34">
         <v>233</v>
@@ -6395,7 +6385,7 @@
         <v>70</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F35">
         <v>234</v>
@@ -6404,7 +6394,7 @@
         <v>117</v>
       </c>
       <c r="N35" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -6531,10 +6521,10 @@
         <v>239</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N40" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -6557,7 +6547,7 @@
         <v>240</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N41" s="20" t="s">
         <v>143</v>
@@ -6629,7 +6619,7 @@
         <v>71</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F44">
         <v>243</v>
@@ -6681,7 +6671,7 @@
         <v>71</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F46">
         <v>245</v>
@@ -6707,7 +6697,7 @@
         <v>70</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F47">
         <v>246</v>
@@ -6733,7 +6723,7 @@
         <v>71</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F48">
         <v>247</v>
@@ -6785,7 +6775,7 @@
         <v>71</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F50">
         <v>249</v>
@@ -6805,7 +6795,7 @@
         <v>84</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>70</v>
@@ -6831,13 +6821,13 @@
         <v>84</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>71</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F52">
         <v>251</v>
@@ -6846,7 +6836,7 @@
         <v>122</v>
       </c>
       <c r="N52" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -6898,7 +6888,7 @@
         <v>105</v>
       </c>
       <c r="N54" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -6924,7 +6914,7 @@
         <v>105</v>
       </c>
       <c r="N55" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:14">
